--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="193">
   <si>
     <t>Device Name</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Mkeke Compatible with iPhone XR Screen Protector, iPhone 11 Screen Protector,Tempered Glass Film for Apple iPhone XR &amp; iPhone 11, 3-Pack Clear</t>
   </si>
   <si>
-    <t>40,175</t>
+    <t>40,385</t>
   </si>
   <si>
     <t>$8.99</t>
@@ -43,7 +43,7 @@
     <t>Apple AirPods with Wired Charging Case</t>
   </si>
   <si>
-    <t>74,460</t>
+    <t>74,773</t>
   </si>
   <si>
     <t>$139.00</t>
@@ -55,7 +55,7 @@
     <t>Ailun Glass Screen Protector for iPhone 11/iPhone XR 6.1 Inch 3 Pack Tempered Glass Screen Protector for Apple iPhone 11/iPhone XR 6.1 Inch Display Anti Scratch Advanced HD Clarity Work Most Case</t>
   </si>
   <si>
-    <t>34,885</t>
+    <t>35,154</t>
   </si>
   <si>
     <t>$9.89</t>
@@ -67,7 +67,7 @@
     <t>AmazonBasics Nylon Braided Lightning to USB A Cable, MFi Certified iPhone Charger, Dark Gray, 3-Foot</t>
   </si>
   <si>
-    <t>64,845</t>
+    <t>64,952</t>
   </si>
   <si>
     <t>$12.49 - $99.99</t>
@@ -79,7 +79,7 @@
     <t>Apple AirPods Pro</t>
   </si>
   <si>
-    <t>17,220</t>
+    <t>17,400</t>
   </si>
   <si>
     <t>$229.99</t>
@@ -88,172 +88,289 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/71zny7BTRlL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
+    <t>Apple EarPods with Lightning Connector - White</t>
+  </si>
+  <si>
+    <t>14,845</t>
+  </si>
+  <si>
+    <t>$19.16</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41Y2dfI6K1L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 3 (GPS, 38mm) - Space Gray Aluminum Case with Black Sport Band</t>
+  </si>
+  <si>
+    <t>15,391</t>
+  </si>
+  <si>
+    <t>$169.00</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71fwbMm1NBL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
     <t>Yootech Wireless Charger,Qi-Certified 10W Max Fast Wireless Charging Pad Compatible with iPhone SE 2020/11/11 Pro/11 Pro Max/XR/XS/X/8,Samsung Galaxy S20/Note 10/S10/S9,AirPods Pro(No AC Adapter)</t>
   </si>
   <si>
-    <t>35,734</t>
-  </si>
-  <si>
-    <t>$10.15 - $11.04</t>
+    <t>35,843</t>
+  </si>
+  <si>
+    <t>$11.95 - $12.99</t>
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/51jnrvGijkL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>Apple EarPods with Lightning Connector - White</t>
-  </si>
-  <si>
-    <t>14,760</t>
-  </si>
-  <si>
-    <t>$19.16</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/41Y2dfI6K1L._AC_UL200_SR200,200_.jpg</t>
+    <t>Beam Electronics Universal Smartphone Car Air Vent Mount Holder Cradle Compatible With iPhone XS XS Max XR X 8 8+ 7 7+ SE 6s 6+ 6 5s 4 Samsung Galaxy S10 S9 S8 S7 S6 S5 S4 LG Nexus Nokia and More</t>
+  </si>
+  <si>
+    <t>30,275</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81tdHkBsXPL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>JETech Screen Protector for Apple iPhone 11 Pro, iPhone Xs and iPhone X 5.8-Inch, Tempered Glass Film, 2-Pack</t>
+  </si>
+  <si>
+    <t>14,887</t>
+  </si>
+  <si>
+    <t>$6.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71nkYDHrEwL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
     <t>Trianium (3 Packs) Screen Protector Designed for Apple iPhone 11 Pro Max, iPhone XS Max (6.5" 2018) Premium HD Clarity 0.25mm Tempered Glass Screen Protector Easy Installation Alignment Case (3-Pack)</t>
   </si>
   <si>
-    <t>21,404</t>
+    <t>21,481</t>
+  </si>
+  <si>
+    <t>$13.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61kDTd2eCOL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>SanDisk Ultra 128GB microSDXC UHS-I card with Adapter - 100MB/s U1 A1 - SDSQUAR-128G-GN6MA</t>
+  </si>
+  <si>
+    <t>213,141</t>
+  </si>
+  <si>
+    <t>$21.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/617NtexaW2L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>amFilm Glass Screen Protector for iPhone 8, 7, 6S, 6 (4.7 Inch)(2 Pack) Tempered Glass Screen Protector</t>
+  </si>
+  <si>
+    <t>59,406</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71%2Bwddp5CML._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Trianium 3 Pack Glass Protector Compatible with iPhone 11 Screen Protector, iPhone XR Screen Protector Tempered Glass Film [6.1 Inch] HD Clarity 0.25mm with Installation Alignment Case Tray (3-Pack)</t>
+  </si>
+  <si>
+    <t>13,898</t>
+  </si>
+  <si>
+    <t>$5.90</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61hRwKic5XL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Anker Wireless Charger, PowerWave Pad Qi-Certified 10W Max for iPhone SE (2020), 11, 11 Pro, 11 Pro Max, Xs Max, XR, XS, X, 8, 8 Plus, AirPods, Galaxy S20 S10 S9 S8, Note 10 9 8 (No AC Adapter)</t>
+  </si>
+  <si>
+    <t>17,994</t>
+  </si>
+  <si>
+    <t>$11.95 - $34.79</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51QPhQTFd0L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>GBPOOT Compatible for Apple Watch Band 38mm 40mm 42mm 44mm, Wristband Loop Replacement Band for Iwatch Series 4,Series 3,Series 2,Series 1,Black,38mm/40mm</t>
+  </si>
+  <si>
+    <t>8,151</t>
+  </si>
+  <si>
+    <t>$9.90 - $16.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81SJQ4Cci0L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>USB Charger, Anker Elite Dual Port 24W Wall Charger, PowerPort 2 with PowerIQ and Foldable Plug, for iPhone 11/Xs/XS Max/XR/X/8/7/6/Plus, iPad Pro/Air 2/Mini 3/Mini 4, Samsung S4/S5, and More</t>
+  </si>
+  <si>
+    <t>2,396</t>
+  </si>
+  <si>
+    <t>$8.99 - $12.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61WUNQiqqiL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>OontZ Angle 3 (3rd Gen) - Bluetooth Portable Speaker, Louder Volume, Crystal Clear Stereo Sound, Rich Bass, 100 Ft Wireless Range, Microphone, IPX5, Bluetooth Speakers by Cambridge Sound Works (Black)</t>
+  </si>
+  <si>
+    <t>56,470</t>
+  </si>
+  <si>
+    <t>$25.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71evtyMeLiL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>TOZO T10 Bluetooth 5.0 Wireless Earbuds with Wireless Charging Case IPX8 Waterproof TWS Stereo Headphones in Ear Built in Mic Headset Premium Sound with Deep Bass for Sport Black</t>
+  </si>
+  <si>
+    <t>40,769</t>
+  </si>
+  <si>
+    <t>$39.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71isyD36rbL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>JETech Screen Protector for Apple iPhone 8 and iPhone 7, 4.7-Inch, Case Friendly, Tempered Glass Film, 2-Pack</t>
+  </si>
+  <si>
+    <t>47,418</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/7121nkI06qL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 3 (GPS, 38mm) - Silver Aluminum Case with White Sport Band</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71vCuRn4CkL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Ailun Screen Protector for iPhone 8 Plus/7 Plus/6s Plus/6 Plus-5.5 Inch 3Pack 2.5D Edge Tempered Glass Compatible with iPhone 8 Plus/7 plus/6s Plus/6 Plus-Anti Scratch Case Friendly</t>
+  </si>
+  <si>
+    <t>39,886</t>
+  </si>
+  <si>
+    <t>$7.89</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81n%2BlyIdOVL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>MFi Certified iPhone Charger MBYY, 5pack [6/6/6/10/10FT] Lightning Cable iPhone Cable USB Sync Cord Fast iPhone Charger Cable Compatible iPhone 11 Pro Max Xs X XR 8 7 6s 6 SE iPad iPod More</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>$9.97</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51d-UmP8BVL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Selfie Stick Tripod, UBeesize 51" Extendable Tripod Stand with Bluetooth Remote for iPhone &amp; Android Phone, Heavy Duty Aluminum, Lightweight</t>
+  </si>
+  <si>
+    <t>10,653</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51IX17SeW%2BL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>USB Type C Cable, Anker [2-Pack, 6 ft] Premium Nylon USB-A to USB-C Fast Charging Type C Cable, for Galaxy S10 Note 8, LG V20 and Other USB C Charger</t>
+  </si>
+  <si>
+    <t>9,770</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/713NAWKQHEL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Ailun for Apple iPhone 11 Pro Max/iPhone Xs Max Screen Protector 3 Pack 6.5 Inch 2019/2018 Release Tempered Glass 0.33mm Anti Scratch Advanced HD Clarity Work with Most Case</t>
+  </si>
+  <si>
+    <t>15,540</t>
   </si>
   <si>
     <t>$11.89</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61kDTd2eCOL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>amFilm Glass Screen Protector for iPhone 8, 7, 6S, 6 (4.7 Inch)(2 Pack) Tempered Glass Screen Protector</t>
-  </si>
-  <si>
-    <t>59,332</t>
-  </si>
-  <si>
-    <t>$6.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71%2Bwddp5CML._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>JETech Screen Protector for Apple iPhone 11 Pro, iPhone Xs and iPhone X 5.8-Inch, Tempered Glass Film, 2-Pack</t>
-  </si>
-  <si>
-    <t>14,817</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71nkYDHrEwL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>MFi Certified iPhone Charger MBYY, 5pack [6/6/6/10/10FT] Lightning Cable iPhone Cable USB Sync Cord Fast iPhone Charger Cable Compatible iPhone 11 Pro Max Xs X XR 8 7 6s 6 SE iPad iPod More</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>$9.97</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51d-UmP8BVL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>GBPOOT Compatible for Apple Watch Band 38mm 40mm 42mm 44mm, Wristband Loop Replacement Band for Iwatch Series 4,Series 3,Series 2,Series 1,Black,38mm/40mm</t>
-  </si>
-  <si>
-    <t>8,082</t>
-  </si>
-  <si>
-    <t>$9.90 - $16.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81SJQ4Cci0L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>OontZ Angle 3 (3rd Gen) - Bluetooth Portable Speaker, Louder Volume, Crystal Clear Stereo Sound, Rich Bass, 100 Ft Wireless Range, Microphone, IPX5, Bluetooth Speakers by Cambridge Sound Works (Black)</t>
-  </si>
-  <si>
-    <t>56,360</t>
-  </si>
-  <si>
-    <t>$25.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71evtyMeLiL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>USB Charger, Anker Elite Dual Port 24W Wall Charger, PowerPort 2 with PowerIQ and Foldable Plug, for iPhone 11/Xs/XS Max/XR/X/8/7/6/Plus, iPad Pro/Air 2/Mini 3/Mini 4, Samsung S4/S5, and More</t>
-  </si>
-  <si>
-    <t>2,387</t>
-  </si>
-  <si>
-    <t>$8.99 - $12.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61WUNQiqqiL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Anker Wireless Charger, PowerWave Pad Qi-Certified 10W Max for iPhone SE (2020), 11, 11 Pro, 11 Pro Max, Xs Max, XR, XS, X, 8, 8 Plus, AirPods, Galaxy S20 S10 S9 S8, Note 10 9 8 (No AC Adapter)</t>
-  </si>
-  <si>
-    <t>17,892</t>
-  </si>
-  <si>
-    <t>$11.95 - $34.79</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51QPhQTFd0L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>SanDisk Ultra 128GB microSDXC UHS-I card with Adapter - 100MB/s U1 A1 - SDSQUAR-128G-GN6MA</t>
-  </si>
-  <si>
-    <t>212,907</t>
-  </si>
-  <si>
-    <t>$21.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/617NtexaW2L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>TOZO T10 Bluetooth 5.0 Wireless Earbuds with Wireless Charging Case IPX8 Waterproof TWS Stereo Headphones in Ear Built in Mic Headset Premium Sound with Deep Bass for Sport Black</t>
-  </si>
-  <si>
-    <t>40,540</t>
-  </si>
-  <si>
-    <t>$39.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71isyD36rbL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>JETech Screen Protector for Apple iPhone 8 and iPhone 7, 4.7-Inch, Case Friendly, Tempered Glass Film, 2-Pack</t>
-  </si>
-  <si>
-    <t>47,312</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/7121nkI06qL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Ailun Screen Protector for iPhone 8 Plus/7 Plus/6s Plus/6 Plus-5.5 Inch 3Pack 2.5D Edge Tempered Glass Compatible with iPhone 8 Plus/7 plus/6s Plus/6 Plus-Anti Scratch Case Friendly</t>
-  </si>
-  <si>
-    <t>39,739</t>
-  </si>
-  <si>
-    <t>$7.89</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81n%2BlyIdOVL._AC_UL200_SR200,200_.jpg</t>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81e-mq9Zd0L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Maxboost Screen Protector for Apple iPhone Xs &amp; iPhone X &amp; iPhone 11 Pro (3 Packs, Clear) 0.25mm Tempered Glass Screen Protector with Advanced Clarity [3D Touch] Work w/Most Case 99% Touch Accurate</t>
+  </si>
+  <si>
+    <t>21,475</t>
+  </si>
+  <si>
+    <t>$13.95</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71zW4NXBIXL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Mkeke Compatible with iPhone 11 Pro Max Screen Protector, iPhone Xs Max Screen Protector Tempered Glass [3 Pack][6.5"]</t>
+  </si>
+  <si>
+    <t>7,143</t>
+  </si>
+  <si>
+    <t>$7.64</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71kt9tLLQML._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Letsfit Smart Watch, Fitness Tracker with Heart Rate Monitor, Activity Tracker with 1.3" Touch Screen, IP68 Waterproof Pedometer Smartwatch with Sleep Monitor, Step Counter for Women and Men</t>
+  </si>
+  <si>
+    <t>6,691</t>
+  </si>
+  <si>
+    <t>$35.99 - $41.89</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61MNpaOq6GL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>SanDisk 64GB Ultra MicroSDXC UHS-I Memory Card with Adapter - 100MB/s, C10, U1, Full HD, A1, Micro SD Card - SDSQUAR-064G-GN6MA</t>
+  </si>
+  <si>
+    <t>$12.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51IEVgCe89L._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
     <t>Misxi Black Hard Case Compatible with Apple Watch Series 5 Series 4 44mm with Screen Protector, Hard PC Case Slim Tempered Glass Screen Protector Overall Protective Cover for iwatch Series 5/4</t>
   </si>
   <si>
-    <t>5,225</t>
+    <t>5,292</t>
   </si>
   <si>
     <t>$11.99</t>
@@ -262,67 +379,16 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/61dqycxDnDL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>Beam Electronics Universal Smartphone Car Air Vent Mount Holder Cradle Compatible With iPhone XS XS Max XR X 8 8+ 7 7+ SE 6s 6+ 6 5s 4 Samsung Galaxy S10 S9 S8 S7 S6 S5 S4 LG Nexus Nokia and More</t>
-  </si>
-  <si>
-    <t>30,172</t>
-  </si>
-  <si>
-    <t>$9.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81tdHkBsXPL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Ailun for Apple iPhone 11 Pro Max/iPhone Xs Max Screen Protector 3 Pack 6.5 Inch 2019/2018 Release Tempered Glass 0.33mm Anti Scratch Advanced HD Clarity Work with Most Case</t>
-  </si>
-  <si>
-    <t>15,458</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81e-mq9Zd0L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Samsung EVO Select 128GB microSDXC UHS-I U3 100MB/s Full HD &amp; 4K UHD Memory Card with Adapter (MB-ME128HA)</t>
-  </si>
-  <si>
-    <t>15,440</t>
-  </si>
-  <si>
-    <t>$18.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81axmUuRHrL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Maxboost Screen Protector for Apple iPhone Xs &amp; iPhone X &amp; iPhone 11 Pro (3 Packs, Clear) 0.25mm Tempered Glass Screen Protector with Advanced Clarity [3D Touch] Work w/Most Case 99% Touch Accurate</t>
-  </si>
-  <si>
-    <t>21,394</t>
-  </si>
-  <si>
-    <t>$13.95</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71zW4NXBIXL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>SanDisk 64GB Ultra MicroSDXC UHS-I Memory Card with Adapter - 100MB/s, C10, U1, Full HD, A1, Micro SD Card - SDSQUAR-064G-GN6MA</t>
-  </si>
-  <si>
-    <t>$12.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51IEVgCe89L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>USB Type C Cable, Anker [2-Pack, 6 ft] Premium Nylon USB-A to USB-C Fast Charging Type C Cable, for Galaxy S10 Note 8, LG V20 and Other USB C Charger</t>
-  </si>
-  <si>
-    <t>9,728</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/713NAWKQHEL._AC_UL200_SR200,200_.jpg</t>
+    <t>JETech Screen Protector for Apple iPhone 8 Plus and iPhone 7 Plus, 5.5-Inch, Case Friendly, Tempered Glass Film, 2-Pack</t>
+  </si>
+  <si>
+    <t>34,991</t>
+  </si>
+  <si>
+    <t>$6.98</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71azoIqjUyL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
     <t>SanDisk Ultra 32GB MicroSDHC UHS-I Card with Adapter - 98MB/s U1 A1 - SDSQUAR-032G-GN6MA</t>
@@ -334,28 +400,10 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/61wtfkbzUIL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>Samsung EVO Select 256GB microSDXC UHS-I U3 100MB/s Full HD &amp; 4K UHD Memory Card with Adapter (MB-ME256HA)</t>
-  </si>
-  <si>
-    <t>$33.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81Cmetw9jTL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Selfie Stick Tripod, UBeesize 51" Extendable Tripod Stand with Bluetooth Remote for iPhone &amp; Android Phone, Heavy Duty Aluminum, Lightweight</t>
-  </si>
-  <si>
-    <t>10,568</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51IX17SeW%2BL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
     <t>iPhone Charger, KOZOPO Lightning Cable 6FT(2-Pack) Fast Charging Data Sync Transfer Cord with 2 Port USB Plug Wall Charger Travel Adapter Compatible with iPhone 11 Pro Max XS XR X 8 7 Plus 6S 6 iPad</t>
   </si>
   <si>
-    <t>4,467</t>
+    <t>4,538</t>
   </si>
   <si>
     <t>$14.98</t>
@@ -364,229 +412,187 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51V4H2UEUWL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>VATI Sport Band Compatible for Apple Watch Band 38mm 40mm 42mm 44mm, Soft Silicone Sport Strap Replacement Bands Compatible with 2019 Apple Watch Series 5, iWatch 4/3/2/1, Sport, Nike+, Edition</t>
-  </si>
-  <si>
-    <t>11,010</t>
-  </si>
-  <si>
-    <t>$6.99 - $15.99</t>
+    <t>Apple Lightning to USB Cable (1 m)</t>
+  </si>
+  <si>
+    <t>9,214</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51hhaBx5PCL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Apple EarPods with 3.5mm Headphone Plug - White</t>
+  </si>
+  <si>
+    <t>5,389</t>
+  </si>
+  <si>
+    <t>$18.29</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41YDDVjblsL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>HOVAMP iPhone Charger, MFi Certified Lightning Cable 5 Pack (3/3/6/6/10FT) Nylon Woven with Metal Connector Compatible iPhone 11/Pro/Xs Max/X/8/7/Plus/6S/6/SE/5S iPad - Silver&amp;White</t>
+  </si>
+  <si>
+    <t>4,257</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/614BtrMK1fL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>VATI Sport Band Compatible for Apple Watch Band 38mm 40mm 42mm 44mm, Soft Silicone Sport Strap Replacement Bands Compatible with iWatch Apple Watch Series 5/4/ 3/2/ 1 All Models</t>
+  </si>
+  <si>
+    <t>11,078</t>
+  </si>
+  <si>
+    <t>$6.99 - $35.99</t>
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/61dagtcc5RL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>Purity Screen Protector for Apple iPhone 11 and iPhone XR - 3 Pack (w/Installation Frame) Tempered Glass Screen Protector Compatible iPhone 11 / iPhone XR (3 Pack) [Anti-Scratch] [Fit with Most Cases]</t>
-  </si>
-  <si>
-    <t>10,050</t>
-  </si>
-  <si>
-    <t>$5.97</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71p38Sc%2BpqL._AC_UL200_SR200,200_.jpg</t>
+    <t>iPhone Charger YOKERSU Nylon Braided Lightning Cable Fast Charging 2Pack 6FT Data Sync Transfer Cord with Port Plug Wall Charger(ETL Listed)Compatible with iPhone XS Max/XS/XR/X/8/7/6S/6/Plus/SE/iPad</t>
+  </si>
+  <si>
+    <t>6,072</t>
+  </si>
+  <si>
+    <t>$11.88</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61akco6V9wL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>IYOU Sport Watch Band Compatible with Watch 38MM 42MM 40MM 44MM, Soft Silicone Replacement Sport Strap Compatible with 2019 Watch Series 5/4/3/2/1</t>
+  </si>
+  <si>
+    <t>12,013</t>
+  </si>
+  <si>
+    <t>$5.99 - $35.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61-34T6jp5L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>8" Selfie Ring Light with Tripod Stand &amp; Cell Phone Holder for Live Stream/Makeup, UBeesize Mini Led Camera Ringlight for YouTube Video/Photography Compatible with iPhone Xs Max XR Android (Upgraded)</t>
+  </si>
+  <si>
+    <t>15,117</t>
+  </si>
+  <si>
+    <t>$45.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61Nwtf2xc6L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>USB Type C Cable 3A Fast Charging, JSAUX(2-Pack 6.6ft+6.6ft) USB-A to USB-C Charge Braided Cord Compatible with Samsung Galaxy S10 S10E S9 S8 S20 Plus,Note 10 9 8,Z Flip, and Other USB C Charger(Red)</t>
+  </si>
+  <si>
+    <t>28,280</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/619sLid431L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Julk Series 3 38mm Case for Apple Watch Screen Protector, iWatch Overall Protective Case TPU HD Clear Ultra-Thin Cover for Apple Watch Series 3 (38mm)(2-Pack)</t>
+  </si>
+  <si>
+    <t>12,963</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61La7%2BzvlRL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
     <t>Anker PowerCore 10000 Portable Charger, One of The Smallest and Lightest 10000mAh Power Bank, Ultra-Compact Battery Pack, High-Speed Charging Technology Phone Charger for iPhone, Samsung and More.</t>
   </si>
   <si>
-    <t>21,388</t>
-  </si>
-  <si>
-    <t>$24.99 - $29.99</t>
+    <t>21,429</t>
+  </si>
+  <si>
+    <t>$25.99 - $29.99</t>
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/51npXeK2FNL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
-    <t>Letsfit Smart Watch, Fitness Tracker with Heart Rate Monitor, Activity Tracker with 1.3" Touch Screen, IP68 Waterproof Pedometer Smartwatch with Sleep Monitor, Step Counter for Women and Men</t>
-  </si>
-  <si>
-    <t>6,612</t>
-  </si>
-  <si>
-    <t>$30.59 - $41.89</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61MNpaOq6GL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>JETech Screen Protector for Apple iPhone 8 Plus and iPhone 7 Plus, 5.5-Inch, Case Friendly, Tempered Glass Film, 2-Pack</t>
-  </si>
-  <si>
-    <t>34,913</t>
-  </si>
-  <si>
-    <t>$6.98</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71azoIqjUyL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Apple EarPods with 3.5mm Headphone Plug - White</t>
-  </si>
-  <si>
-    <t>5,347</t>
-  </si>
-  <si>
-    <t>$18.29</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/41YDDVjblsL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Apple Lightning to USB Cable (1 m)</t>
-  </si>
-  <si>
-    <t>9,149</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51hhaBx5PCL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>jwacct Compatible for Apple Watch Band 38mm 40mm 42mm 44mm, Adjustable Stainless Steel Mesh Wristband Sport Loop for iWatch Series 5 4 3 2 1</t>
-  </si>
-  <si>
-    <t>6,440</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71u-e6bFrdL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 5 (GPS, 40mm) - Gold Aluminum Case with Pink Sport Band</t>
-  </si>
-  <si>
-    <t>1,827</t>
-  </si>
-  <si>
-    <t>$299.00</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71jOvjATfPL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>USB Type C Cable 3A Fast Charging, JSAUX(2-Pack 6.6ft+6.6ft) USB-A to USB-C Charge Braided Cord Compatible with Samsung Galaxy S10 S10E S9 S8 S20 Plus,Note 10 9 8,Z Flip, and Other USB C Charger(Red)</t>
-  </si>
-  <si>
-    <t>28,167</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/619sLid431L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>AUKEY Car Phone Mount Air Vent Cell Phone Holder for Car Compatible with iPhone 11/11 Pro/Xs/XS Max / 8/7 / 6, Google Pixel 3 XL, Samsung Galaxy S9+, and Other</t>
-  </si>
-  <si>
-    <t>9,683</t>
-  </si>
-  <si>
-    <t>$7.64</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71TO4wnzOuL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 3 (GPS, 38mm) - Space Gray Aluminum Case with Black Sport Band</t>
-  </si>
-  <si>
-    <t>15,305</t>
-  </si>
-  <si>
-    <t>$179.00</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71fwbMm1NBL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Ailun for Apple iPhone Xs/iPhone X/iPhone 11 Pro Screen Protector,3 Pack,5.8 Inch Display,Tempered Glass 2.5D Edge Work Most Case[NOT for iPhone 11,6.1 inch]</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>$5.98</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81TWjiIiq5L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>SanDisk 256GB Ultra MicroSDXC UHS-I Memory Card with Adapter - 100MB/s, C10, U1, Full HD, A1, Micro SD Card - SDSQUAR-256G-GN6MA,Black</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/619jta1rF4L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 5 (GPS, 40mm) - Space Gray Aluminum Case with Black Sport Band</t>
-  </si>
-  <si>
-    <t>2,258</t>
-  </si>
-  <si>
-    <t>$349.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71DnIj%2B%2BjUL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>HOVAMP iPhone Charger, MFi Certified Lightning Cable 5 Pack (3/3/6/6/10FT) Nylon Woven with Metal Connector Compatible iPhone 11/Pro/Xs Max/X/8/7/Plus/6S/6/SE/5S iPad - Silver&amp;White</t>
-  </si>
-  <si>
-    <t>4,153</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/614BtrMK1fL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>8" Selfie Ring Light with Tripod Stand &amp; Cell Phone Holder for Live Stream/Makeup, UBeesize Mini Led Camera Ringlight for YouTube Video/Photography Compatible with iPhone Xs Max XR Android (Upgraded)</t>
-  </si>
-  <si>
-    <t>14,987</t>
-  </si>
-  <si>
-    <t>$45.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61Nwtf2xc6L._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>IYOU Sport Watch Band Compatible with Watch 38MM 42MM 40MM 44MM, Soft Silicone Replacement Sport Strap Compatible with 2019 Watch Series 5/4/3/2/1</t>
-  </si>
-  <si>
-    <t>12,337</t>
-  </si>
-  <si>
-    <t>$5.99 - $35.99</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61lUVHE2GSL._AC_UL200_SR200,200_.jpg</t>
-  </si>
-  <si>
-    <t>Anker 24W Dual USB Car Charger, PowerDrive 2 for iPhone X / 8/7 / 6s / Plus, iPad Pro/Air 2 / Mini, Note 5/4, LG, Nexus, HTC, and More</t>
-  </si>
-  <si>
-    <t>22,815</t>
-  </si>
-  <si>
-    <t>$6.85 - $10.19</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61%2B2M9KwoSL._AC_UL200_SR200,200_.jpg</t>
+    <t>Updated Version Watch Charger, Powlaken Charging Cable MFi Certified Magnetic Wireless Portable Charger Charging Cable Cord Compatible for Apple Watch Series 5 4 3 2 1</t>
+  </si>
+  <si>
+    <t>5,482</t>
+  </si>
+  <si>
+    <t>$12.95</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51ZzykZuMRL._AC_UL200_SR200,200_.jpg</t>
   </si>
   <si>
     <t>SanDisk 128GB Extreme MicroSDXC UHS-I Memory Card with Adapter - C10, U3, V30, 4K, A2, Micro SD - SDSQXA1-128G-GN6MA</t>
   </si>
   <si>
-    <t>41,501</t>
-  </si>
-  <si>
-    <t>$24.89</t>
+    <t>41,563</t>
+  </si>
+  <si>
+    <t>$24.92</t>
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/81%2BWAnXfePL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Mkeke Compatible with iPhone 11 Pro Screen Protector, iPhone X Screen Protector, iPhone Xs Tempered Glass Screen Protector All 5.8 inch New iPhone [3-Pack]</t>
+  </si>
+  <si>
+    <t>9,987</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/717HD6Sw4CL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Samsung (MB-ME128GA/AM) 128GB 100MB/s (U3) MicroSDXC EVO Select Memory Card with Full-Size Adapter</t>
+  </si>
+  <si>
+    <t>63,867</t>
+  </si>
+  <si>
+    <t>$20.99</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/817wkPGulTL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Mr.Shield [Tempered Glass] Screen Protector For iPhone 6 / iPhone 6S / iPhone 7 / iPhone 8 [3-Pack] Screen Protector</t>
+  </si>
+  <si>
+    <t>25,710</t>
+  </si>
+  <si>
+    <t>$5.95</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/614tkiMyC3L._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>Samsung (MB-ME32GA/AM) 32GB 95MB/s (U1) microSDHC EVO Select Memory Card with Full-Size Adapter</t>
+  </si>
+  <si>
+    <t>15,521</t>
+  </si>
+  <si>
+    <t>$7.49</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81ClkOh2gpL._AC_UL200_SR200,200_.jpg</t>
   </si>
 </sst>
 </file>
@@ -1085,49 +1091,49 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>54</v>
@@ -1197,35 +1203,35 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
@@ -1236,91 +1242,91 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
         <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
@@ -1334,77 +1340,77 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>126</v>
@@ -1463,21 +1469,21 @@
         <v>141</v>
       </c>
       <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
         <v>144</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>145</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>146</v>
@@ -1505,35 +1511,35 @@
         <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>161</v>
@@ -1547,108 +1553,108 @@
         <v>163</v>
       </c>
       <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
         <v>166</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
